--- a/data/trans_dic/P78C7_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C7_2023-Provincia-trans_dic.xlsx
@@ -956,7 +956,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>82,54%</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,02; 100,0</t>
+          <t>38,49; 100,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>54,62; 100,0</t>
+          <t>52,84; 100,0</t>
         </is>
       </c>
     </row>
